--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43989,6 +43989,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44059,6 +44059,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44094,6 +44094,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44129,6 +44129,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44164,6 +44164,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44199,6 +44199,43 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44236,6 +44236,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44271,6 +44271,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44308,6 +44308,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44343,6 +44343,41 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44378,6 +44378,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44415,6 +44415,78 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44487,6 +44487,76 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44557,6 +44557,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44594,6 +44594,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44631,6 +44631,43 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44668,6 +44668,41 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44703,6 +44703,78 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44775,6 +44775,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>14400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44810,6 +44810,41 @@
         <v>14400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2398"/>
+  <dimension ref="A1:I2399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85550,6 +85550,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2399" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I2399" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2399"/>
+  <dimension ref="A1:I2400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85587,6 +85587,41 @@
         </is>
       </c>
     </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2400" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2400" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I2400" t="n">
+        <v>25700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2400"/>
+  <dimension ref="A1:I2401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85622,6 +85622,41 @@
         <v>25700</v>
       </c>
     </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2401" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2401" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I2401" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2401"/>
+  <dimension ref="A1:I2402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85657,6 +85657,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2402">
+      <c r="A2402" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2402" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G2402" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2402" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2402" t="n">
+        <v>15200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2402"/>
+  <dimension ref="A1:I2403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85692,6 +85692,43 @@
         <v>15200</v>
       </c>
     </row>
+    <row r="2403">
+      <c r="A2403" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2403" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2403" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2403" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2403" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2403"/>
+  <dimension ref="A1:I2404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85729,6 +85729,43 @@
         </is>
       </c>
     </row>
+    <row r="2404">
+      <c r="A2404" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2404" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2404" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2404"/>
+  <dimension ref="A1:I2405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85766,6 +85766,43 @@
         </is>
       </c>
     </row>
+    <row r="2405">
+      <c r="A2405" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2405" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2405" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2405" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2405" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2405"/>
+  <dimension ref="A1:I2406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85803,6 +85803,43 @@
         </is>
       </c>
     </row>
+    <row r="2406">
+      <c r="A2406" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2406" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2406" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2406" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2406" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2406"/>
+  <dimension ref="A1:I2407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85840,6 +85840,43 @@
         </is>
       </c>
     </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2407" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2407" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2407" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2407"/>
+  <dimension ref="A1:I2408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85877,6 +85877,43 @@
         </is>
       </c>
     </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2408" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2408" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2408" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2408"/>
+  <dimension ref="A1:I2409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85914,6 +85914,43 @@
         </is>
       </c>
     </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2409" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2409" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2409" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2409"/>
+  <dimension ref="A1:I2410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85951,6 +85951,43 @@
         </is>
       </c>
     </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2410" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2410" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2410" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2410" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2410"/>
+  <dimension ref="A1:I2411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85988,6 +85988,41 @@
         </is>
       </c>
     </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2411" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2411" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2411" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2411" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2411"/>
+  <dimension ref="A1:I2412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86023,6 +86023,43 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2412" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2412" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2412" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2412" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2542.xlsx
+++ b/data/2542.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2412"/>
+  <dimension ref="A1:I2413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86060,6 +86060,43 @@
         </is>
       </c>
     </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>2542</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>RVIEW</t>
+        </is>
+      </c>
+      <c r="E2413" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2413" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I2413" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
